--- a/04_análisis_factorial/01_solo_alphas.xlsx
+++ b/04_análisis_factorial/01_solo_alphas.xlsx
@@ -1,53 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_ips_private/04_análisis_factorial/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98FDADEA-FD44-CB4A-870A-309426EA5BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16320" windowHeight="13980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>componente</t>
+    <t xml:space="preserve">componente</t>
   </si>
   <si>
-    <t>lim_inf</t>
+    <t xml:space="preserve">lim_inf</t>
   </si>
   <si>
-    <t>alpha</t>
+    <t xml:space="preserve">alpha</t>
   </si>
   <si>
-    <t>lim_sup</t>
+    <t xml:space="preserve">lim_sup</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -75,23 +60,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -373,199 +348,197 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.33097492025292702</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.447868158445344</v>
-      </c>
-      <c r="D2">
-        <v>0.54879075108268904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="B2" t="n">
+        <v>0.489847732842515</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.579675880575923</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.655947982969134</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0.79228342786374895</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.83082117450102899</v>
-      </c>
-      <c r="D3">
-        <v>0.863220520519698</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="B3" t="n">
+        <v>0.78377260765606</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.821846154308524</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.854173988311823</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.86450141743961895</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.88817596801394605</v>
-      </c>
-      <c r="D4">
-        <v>0.90861596146807599</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="B4" t="n">
+        <v>0.865350779133915</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.887679904982202</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.907120636601673</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0.51822420058639795</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.59966139392671403</v>
-      </c>
-      <c r="D5">
-        <v>0.67098750197357004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="B5" t="n">
+        <v>0.531445156236602</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.606620808140906</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.67296282797086</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0.50265653287359502</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.58672521406973199</v>
-      </c>
-      <c r="D6">
-        <v>0.66035608950148506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="B6" t="n">
+        <v>0.516173248362616</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.59379914839802</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.662303496135801</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0.71801405645545502</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.76728313629044098</v>
-      </c>
-      <c r="D7">
-        <v>0.80982078304138505</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="B7" t="n">
+        <v>0.728582364475148</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.773592045943014</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.812779479595363</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0.60536380103330401</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.67207131202379999</v>
-      </c>
-      <c r="D8">
-        <v>0.73049654675115605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="B8" t="n">
+        <v>0.79280274375256</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.829286254544067</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.860264006406568</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>0.37274155720087199</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.478770475927702</v>
-      </c>
-      <c r="D9">
-        <v>0.57163504803540999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="B9" t="n">
+        <v>0.573111459091263</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.648278442337485</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.712101909562474</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0.56147141593946603</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.63559829638647103</v>
-      </c>
-      <c r="D10">
-        <v>0.70052172592860995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="B10" t="n">
+        <v>0.588358061852851</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.656621395143594</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.716054493912111</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0.57232369918780601</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.64461615895582602</v>
-      </c>
-      <c r="D11">
-        <v>0.70793292596226198</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="B11" t="n">
+        <v>0.605082197233267</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.668443410262569</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.724359265260287</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0.72747575538918796</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.77354201613808304</v>
-      </c>
-      <c r="D12">
-        <v>0.81388877855362496</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13">
+      <c r="B12" t="n">
+        <v>0.754025034734063</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.793489632341216</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.828316880934521</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0.61433737821058998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0.67817332182888101</v>
-      </c>
-      <c r="D13">
-        <v>0.73458856508548598</v>
+      <c r="B13" t="n">
+        <v>0.731519184646097</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.774594655077516</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.812608475259397</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/04_análisis_factorial/01_solo_alphas.xlsx
+++ b/04_análisis_factorial/01_solo_alphas.xlsx
@@ -1,37 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorgejuvenalcamposferreira/Documents/GitHub/mcv_ips_private/04_análisis_factorial/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4E85BE-EDB7-1742-8840-ED06159E747F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="12840" windowHeight="17420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t xml:space="preserve">componente</t>
+    <t>componente</t>
   </si>
   <si>
-    <t xml:space="preserve">lim_inf</t>
+    <t>lim_inf</t>
   </si>
   <si>
-    <t xml:space="preserve">alpha</t>
+    <t>alpha</t>
   </si>
   <si>
-    <t xml:space="preserve">lim_sup</t>
+    <t>lim_sup</t>
+  </si>
+  <si>
+    <t>cumple_limite</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -60,13 +73,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,14 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,177 +393,216 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.489847732842515</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.579675880575923</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.655947982969134</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.37583878859156999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.480688905655417</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.57046558257632496</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.78377260765606</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.821846154308524</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.854173988311823</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B3" s="1">
+        <v>0.78067457257916995</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.81751809364364103</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.84906492429924696</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="n">
-        <v>0.865350779133915</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.887679904982202</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.907120636601673</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" s="1">
+        <v>0.86641480305554197</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.88754998510745597</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.90608226100564304</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="n">
-        <v>0.531445156236602</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.606620808140906</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.67296282797086</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" s="1">
+        <v>0.53702769621752999</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.60789845062792403</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.67084314938032197</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.516173248362616</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.59379914839802</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.662303496135801</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="B6" s="1">
+        <v>0.57443930797305198</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.64176939323592697</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.70080743290244596</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="n">
-        <v>0.728582364475148</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.773592045943014</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.812779479595363</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="B7" s="1">
+        <v>0.72155594930334899</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.76560997502891703</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.80423852136301899</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.79280274375256</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.829286254544067</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.860264006406568</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="B8" s="1">
+        <v>0.777680584606112</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.81502705263961095</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.84700452570946805</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.573111459091263</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.648278442337485</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.712101909562474</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="B9" s="1">
+        <v>0.54554130274599499</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.61744348593125398</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.68049054619305505</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="n">
-        <v>0.588358061852851</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.656621395143594</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.716054493912111</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="B10" s="1">
+        <v>0.60008031157380304</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.66335360542946098</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.71883446837352405</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="n">
-        <v>0.605082197233267</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.668443410262569</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.724359265260287</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="B11" s="1">
+        <v>0.59257708767350603</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.65703750410514095</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.71355928938660895</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="n">
-        <v>0.754025034734063</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.793489632341216</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.828316880934521</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="B12" s="1">
+        <v>0.74437941250472395</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.78350923459259203</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.81826284888732803</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.731519184646097</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.774594655077516</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.812608475259397</v>
+      <c r="B13" s="1">
+        <v>0.73770164991707698</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.77785368881682204</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.81351519706328101</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>